--- a/story_xlsx_files/21.xlsx
+++ b/story_xlsx_files/21.xlsx
@@ -91,7 +91,7 @@
     </r>
   </si>
   <si>
-    <t>He brought out some very small menus, with a short list of the chef's carefully selected daily dishes written in a loopy cursive font unadorned by any mention of prices.</t>
+    <t>He brought out some very small menus, with a short list of the chef's carefully selected daily dishes written in a loopy, cursive font unadorned by any mention of prices.</t>
   </si>
   <si>
     <r>
@@ -132,14 +132,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>e came back just as the waiter was approaching their table to get their order.</t>
+      <t>e came back just as their waiter was approaching the table to get their order.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Senna ordered the oysters with garlic-parmesan sauce, and Alvira ordered the sauteed sea scallops with caramelized apples. </t>
   </si>
   <si>
-    <t>“Excellent choices,” the waiter said, briskly spun away from the table.</t>
+    <t>“Excellent choices,” the waiter said with a subsequent brisk spin away from the table.</t>
   </si>
   <si>
     <t xml:space="preserve"> “What a beautiful place, Senna. </t>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Senna laughed, “No, those were really the best tomatoes I’ve ever had. </t>
   </si>
   <si>
-    <t xml:space="preserve"> We had to celebrate.” </t>
+    <t xml:space="preserve">We had to celebrate.” </t>
   </si>
   <si>
     <t>They talked and laughed as the sun sank below the horizon, and the glow from the ocean was replaced by the glow from the chandeliers.</t>
@@ -184,7 +184,7 @@
     <t>I couldn’t imagine it any other way, and I don’t want to.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I really want to spend the rest of my years, eating garden tomatoes, whatever it is, with you.” </t>
+    <t xml:space="preserve">I really want to spend the rest of my years eating garden tomatoes, whatever it is, with you.” </t>
   </si>
   <si>
     <t xml:space="preserve"> Alvira smiled, “I want the same with you too, Senna.” </t>
@@ -204,7 +204,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">enna motioned toward the waiter who had been watching attentively, and he quickly strode over to place a small, elegant cake topped with the ring in front of Alvira. </t>
+      <t xml:space="preserve">enna nodded at the waiter who had been watching attentively, and he quickly strode over to place a small, elegant cake topped with the ring in front of Alvira. </t>
     </r>
   </si>
   <si>
@@ -252,10 +252,10 @@
     <t>The neighboring tables exploded in applause.</t>
   </si>
   <si>
-    <t xml:space="preserve">The waiter returned with a bottle of champagne, and popped it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All of this went unnoticed by Senna and Alvira, as they looked into each other's eyes and he slipped the ring onto her finger. </t>
+    <t xml:space="preserve">The waiter returned with a bottle of champagne and popped it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of this went unnoticed by Senna and Alvira as they looked into each others’ eyes, and he slipped the ring onto her finger. </t>
   </si>
   <si>
     <r>
@@ -1805,7 +1805,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="133.8" customHeight="1">
+    <row r="15" ht="151.8" customHeight="1">
       <c r="A15" t="s" s="12">
         <v>18</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="187.8" customHeight="1">
+    <row r="25" ht="151.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>28</v>
       </c>

--- a/story_xlsx_files/21.xlsx
+++ b/story_xlsx_files/21.xlsx
@@ -54,7 +54,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>ira and Senna walked into the restaurant hand in sweaty hand with quite different expectations: Senna was going to propose tonight and Alvira had no idea.</t>
+      <t>ira and Senna walked into the restaurant hand in sweaty hand with quite different expectations: Senna was going to propose tonight, and Alvira had no idea.</t>
     </r>
   </si>
   <si>
@@ -91,7 +91,7 @@
     </r>
   </si>
   <si>
-    <t>He brought out some very small menus, with a short list of the chef's carefully selected daily dishes written in a loopy, cursive font unadorned by any mention of prices.</t>
+    <t>He brought out some very small menus, with a short list of the celebrity chef's carefully selected daily dishes written in a loopy, cursive font unadorned by any mention of prices.</t>
   </si>
   <si>
     <r>
@@ -112,10 +112,10 @@
     </r>
   </si>
   <si>
-    <t>The canary diamond had been his mother’s ring, and it was a brilliant stone with small white diamonds encircling it.</t>
-  </si>
-  <si>
-    <t>He walked back to the table after handing the box to a waiter at the front podium.</t>
+    <t>The ring contained a canary diamond that had been in his grandmother’s wedding ring, and it was a brilliant stone that was accentuated by the small white diamonds encircling it.</t>
+  </si>
+  <si>
+    <t>He walked back to the table after handing the small, velvet box to a waiter at the front podium.</t>
   </si>
   <si>
     <r>
@@ -142,13 +142,13 @@
     <t>“Excellent choices,” the waiter said with a subsequent brisk spin away from the table.</t>
   </si>
   <si>
-    <t xml:space="preserve"> “What a beautiful place, Senna. </t>
+    <t xml:space="preserve">“What a beautiful place, Senna. </t>
   </si>
   <si>
     <t>Really this is too much just to celebrate the first tomatoes I grew in the garden, like, this is absurd,” Alvira said.</t>
   </si>
   <si>
-    <t xml:space="preserve">Senna laughed, “No, those were really the best tomatoes I’ve ever had. </t>
+    <t xml:space="preserve">Senna laughed and said, “No, those were really the best tomatoes I’ve ever had. </t>
   </si>
   <si>
     <t xml:space="preserve">We had to celebrate.” </t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">I really want to spend the rest of my years eating garden tomatoes, whatever it is, with you.” </t>
   </si>
   <si>
-    <t xml:space="preserve"> Alvira smiled, “I want the same with you too, Senna.” </t>
+    <t xml:space="preserve">Alvira smiled, “I want the same with you too, Senna.” </t>
   </si>
   <si>
     <r>
@@ -288,7 +288,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -489,7 +489,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1581,7 +1581,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1711,7 +1717,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="295.8" customHeight="1">
+    <row r="9" ht="331.8" customHeight="1">
       <c r="A9" t="s" s="12">
         <v>12</v>
       </c>
@@ -1743,7 +1749,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="205.8" customHeight="1">
+    <row r="11" ht="331.8" customHeight="1">
       <c r="A11" t="s" s="12">
         <v>14</v>
       </c>
@@ -1758,7 +1764,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="151.8" customHeight="1">
+    <row r="12" ht="169.8" customHeight="1">
       <c r="A12" t="s" s="12">
         <v>15</v>
       </c>
@@ -1850,7 +1856,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="151.8" customHeight="1">
+    <row r="18" ht="169.8" customHeight="1">
       <c r="A18" t="s" s="12">
         <v>21</v>
       </c>

--- a/story_xlsx_files/21.xlsx
+++ b/story_xlsx_files/21.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>storyText</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>socialEventSize</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <r>
@@ -36,25 +39,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>lv</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>ira and Senna walked into the restaurant hand in sweaty hand with quite different expectations: Senna was going to propose tonight, and Alvira had no idea.</t>
+      <t>Alvira and Senna walked into the restaurant hand in sweaty hand with quite different expectations: Senna was going to propose tonight, and Alvira had no idea.</t>
     </r>
   </si>
   <si>
@@ -79,19 +64,27 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>He</t>
+      <t>He led them to a table right by the window.</t>
     </r>
+  </si>
+  <si>
+    <t>He brought out some very small menus, with a short list of the celebrity chef's carefully selected daily dishes written in a loopy, cursive font unadorned by any mention of prices.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> led them to a table right by the window.</t>
+      <t>Senna slipped off to the bathroom to check to make sure the ring was in order.</t>
     </r>
   </si>
   <si>
-    <t>He brought out some very small menus, with a short list of the celebrity chef's carefully selected daily dishes written in a loopy, cursive font unadorned by any mention of prices.</t>
+    <t>The ring contained a canary diamond that had been in his grandmother’s wedding ring, and it was a brilliant stone that was accentuated by the small white diamonds encircling it.</t>
+  </si>
+  <si>
+    <t>He walked back to the table after handing the small, velvet box to a waiter at the front podium.</t>
   </si>
   <si>
     <r>
@@ -100,22 +93,54 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>S</t>
+      <t>He came back just as their waiter was approaching the table to get their order.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Senna ordered the oysters with garlic-parmesan sauce, and Alvira ordered the sauteed sea scallops with caramelized apples. </t>
+  </si>
+  <si>
+    <t>“Excellent choices,” the waiter said with a subsequent brisk spin away from the table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“What a beautiful place, Senna. </t>
+  </si>
+  <si>
+    <t>Really this is too much just to celebrate the first tomatoes I grew in the garden, like, this is absurd,” Alvira said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senna laughed and said, “No, those were really the best tomatoes I’ve ever had. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had to celebrate.” </t>
+  </si>
+  <si>
+    <t>They talked and laughed as the sun sank below the horizon, and the glow from the ocean was replaced by the glow from the chandeliers.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>enna slipped off to the bathroom to check to make sure the ring was in order.</t>
+      <t xml:space="preserve">The waiter eventually returned with their meals, and everything was even more delicious than they had expected, especially the oysters, which Senna said tasted like the ocean. </t>
     </r>
   </si>
   <si>
-    <t>The ring contained a canary diamond that had been in his grandmother’s wedding ring, and it was a brilliant stone that was accentuated by the small white diamonds encircling it.</t>
-  </si>
-  <si>
-    <t>He walked back to the table after handing the small, velvet box to a waiter at the front podium.</t>
+    <t xml:space="preserve">Then he paused and looked at Alvira meaningfully. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “It’s really been the best three years of my life with you.</t>
+  </si>
+  <si>
+    <t>I couldn’t imagine it any other way, and I don’t want to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I really want to spend the rest of my years eating garden tomatoes, whatever it is, with you.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvira smiled, “I want the same with you too, Senna.” </t>
   </si>
   <si>
     <r>
@@ -124,128 +149,32 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>H</t>
+      <t xml:space="preserve">Senna nodded at the waiter who had been watching attentively, and he quickly strode over to place a small, elegant cake topped with the ring in front of Alvira. </t>
     </r>
+  </si>
+  <si>
+    <t>Her eyes widened in shock when she realized what she was looking at.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Alvira, will you marry me? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love you, and I will never stop loving you.” </t>
+  </si>
+  <si>
+    <t>Alvira started to cry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room became silent, and everyone turned to their table. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>e came back just as their waiter was approaching the table to get their order.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Senna ordered the oysters with garlic-parmesan sauce, and Alvira ordered the sauteed sea scallops with caramelized apples. </t>
-  </si>
-  <si>
-    <t>“Excellent choices,” the waiter said with a subsequent brisk spin away from the table.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“What a beautiful place, Senna. </t>
-  </si>
-  <si>
-    <t>Really this is too much just to celebrate the first tomatoes I grew in the garden, like, this is absurd,” Alvira said.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senna laughed and said, “No, those were really the best tomatoes I’ve ever had. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We had to celebrate.” </t>
-  </si>
-  <si>
-    <t>They talked and laughed as the sun sank below the horizon, and the glow from the ocean was replaced by the glow from the chandeliers.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">he waiter eventually returned with their meals, and everything was even more delicious than they had expected, especially the oysters, which Senna said tasted like the ocean. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Then he paused and looked at Alvira meaningfully. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “It’s really been the best three years of my life with you.</t>
-  </si>
-  <si>
-    <t>I couldn’t imagine it any other way, and I don’t want to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I really want to spend the rest of my years eating garden tomatoes, whatever it is, with you.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvira smiled, “I want the same with you too, Senna.” </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">enna nodded at the waiter who had been watching attentively, and he quickly strode over to place a small, elegant cake topped with the ring in front of Alvira. </t>
-    </r>
-  </si>
-  <si>
-    <t>Her eyes widened in shock when she realized what she was looking at.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Alvira, will you marry me? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I love you, and I will never stop loving you.” </t>
-  </si>
-  <si>
-    <t>Alvira started to cry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The room became silent, and everyone turned to their table. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>es, of course, yes!” she shouted as she wiped away tears.</t>
+      <t>“Yes, of course, yes!” she shouted as she wiped away tears.</t>
     </r>
   </si>
   <si>
@@ -284,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -293,7 +222,12 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <b val="1"/>
@@ -312,7 +246,7 @@
       <name val="Times"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -451,44 +391,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,6 +446,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -528,10 +463,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -560,14 +495,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -708,11 +643,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -721,33 +659,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -998,10 +936,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1292,7 +1230,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1316,9 +1254,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1575,9 +1513,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1607,12 +1543,14 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="128.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1620,557 +1558,559 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
+        <v>21</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="80.05" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="331.8" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="205.8" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="169.8" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="241.8" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="79.8" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="331.8" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="151.8" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="331.8" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="169.8" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="331.8" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="205.8" customHeight="1">
-      <c r="A5" t="s" s="12">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="151.8" customHeight="1">
+      <c r="A13" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="241.8" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="151.8" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" ht="79.8" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="205.8" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" ht="169.8" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" ht="43.8" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="241.8" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="169.8" customHeight="1">
-      <c r="A6" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="241.8" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="79.8" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="331.8" customHeight="1">
-      <c r="A9" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="151.8" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" ht="331.8" customHeight="1">
-      <c r="A11" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="169.8" customHeight="1">
-      <c r="A12" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10">
-        <v>6</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" ht="151.8" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="331.8" customHeight="1">
+      <c r="A21" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="115.8" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="97.8" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="115.8" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="151.8" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="115.8" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="B26" s="8">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9">
+        <v>17</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="313.8" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9">
         <v>3</v>
       </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="241.8" customHeight="1">
-      <c r="A14" t="s" s="12">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="133.8" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="B28" s="8">
+        <v>4</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="61.8" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <v>4</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="79.8" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="B30" s="8">
+        <v>4</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" ht="61.8" customHeight="1">
+      <c r="A31" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="B31" s="8">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" ht="115.8" customHeight="1">
+      <c r="A32" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4</v>
+      </c>
+      <c r="C32" s="9">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" ht="115.8" customHeight="1">
+      <c r="A33" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="B33" s="8">
+        <v>4</v>
+      </c>
+      <c r="C33" s="9">
+        <v>4</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" ht="97.8" customHeight="1">
+      <c r="A34" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4</v>
+      </c>
+      <c r="C34" s="9">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" ht="133.8" customHeight="1">
+      <c r="A35" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="B35" s="8">
+        <v>4</v>
+      </c>
+      <c r="C35" s="9">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" ht="223.8" customHeight="1">
+      <c r="A36" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9">
+        <v>4</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" ht="364.35" customHeight="1">
+      <c r="A37" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="B37" s="8">
+        <v>4</v>
+      </c>
+      <c r="C37" s="9">
+        <v>4</v>
+      </c>
+      <c r="D37" s="9">
         <v>17</v>
       </c>
-      <c r="B14" s="9">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="151.8" customHeight="1">
-      <c r="A15" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="79.8" customHeight="1">
-      <c r="A16" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9">
-        <v>3</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="205.8" customHeight="1">
-      <c r="A17" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="B17" s="9">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="169.8" customHeight="1">
-      <c r="A18" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="43.8" customHeight="1">
-      <c r="A19" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="B19" s="9">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="241.8" customHeight="1">
-      <c r="A20" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="B20" s="9">
-        <v>3</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10">
-        <v>8</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="331.8" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B21" s="9">
-        <v>4</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="115.8" customHeight="1">
-      <c r="A22" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9">
-        <v>4</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="97.8" customHeight="1">
-      <c r="A23" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="10">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" ht="115.8" customHeight="1">
-      <c r="A24" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="B24" s="9">
-        <v>4</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" ht="151.8" customHeight="1">
-      <c r="A25" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="B25" s="9">
-        <v>4</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" ht="115.8" customHeight="1">
-      <c r="A26" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9">
-        <v>4</v>
-      </c>
-      <c r="C26" s="10">
-        <v>2</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10">
-        <v>17</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" ht="313.8" customHeight="1">
-      <c r="A27" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="B27" s="9">
-        <v>4</v>
-      </c>
-      <c r="C27" s="10">
-        <v>3</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" ht="133.8" customHeight="1">
-      <c r="A28" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="B28" s="9">
-        <v>4</v>
-      </c>
-      <c r="C28" s="10">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" ht="61.8" customHeight="1">
-      <c r="A29" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="B29" s="9">
-        <v>4</v>
-      </c>
-      <c r="C29" s="10">
-        <v>3</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" ht="79.8" customHeight="1">
-      <c r="A30" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="B30" s="9">
-        <v>4</v>
-      </c>
-      <c r="C30" s="10">
-        <v>3</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" ht="61.8" customHeight="1">
-      <c r="A31" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="B31" s="9">
-        <v>4</v>
-      </c>
-      <c r="C31" s="10">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" ht="115.8" customHeight="1">
-      <c r="A32" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="B32" s="9">
-        <v>4</v>
-      </c>
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="10">
+      <c r="E37" s="9">
         <v>5</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="115.8" customHeight="1">
-      <c r="A33" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4</v>
-      </c>
-      <c r="C33" s="10">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="97.8" customHeight="1">
-      <c r="A34" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" ht="133.8" customHeight="1">
-      <c r="A35" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="B35" s="9">
-        <v>4</v>
-      </c>
-      <c r="C35" s="10">
-        <v>4</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="223.8" customHeight="1">
-      <c r="A36" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="B36" s="9">
-        <v>4</v>
-      </c>
-      <c r="C36" s="10">
-        <v>4</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" ht="364.35" customHeight="1">
-      <c r="A37" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="B37" s="9">
-        <v>4</v>
-      </c>
-      <c r="C37" s="10">
-        <v>4</v>
-      </c>
-      <c r="D37" s="10">
-        <v>17</v>
-      </c>
-      <c r="E37" s="10">
-        <v>5</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/21.xlsx
+++ b/story_xlsx_files/21.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>storyText</t>
   </si>
@@ -39,23 +39,42 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Alvira and Senna walked into the restaurant hand in sweaty hand with quite different expectations: Senna was going to propose tonight, and Alvira had no idea.</t>
+      <t>Alvira and Senna walked into the restaurant hand in sweaty hand with quite different expectations: Senna, after 5 years of dating,  was going to propose tonight, and Alvira had no idea.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">He took a deep breath, trying to calm his nerves as worst case scenarios ran through his mind. </t>
   </si>
   <si>
-    <t xml:space="preserve">The entrance of the restaurant was dazzling; chandeliers spread their warm light onto the delicate place settings of all the tables filled with guests dressed to the nines. </t>
-  </si>
-  <si>
-    <t>Through the floor-to-ceiling arched windows of the back wall, they saw the sun setting onto the Pacific ocean.</t>
-  </si>
-  <si>
-    <t>This was surely one of the best restaurants on the west coast, situated right on the beach.</t>
-  </si>
-  <si>
-    <t>Senna gave his name to the host, who quickly located their reservation with an almost comically wide customer-service smile.</t>
+    <t>The restaurant was on the beach and had floor-to-ceiling arched windows through which you could steal glances at the ocean.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>The restaurant itself was beautiful- crystal chandeliers hung from the high ceiling above small tables covered with white table clothes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>They saw the sun setting onto the Pacific ocean.</t>
+  </si>
+  <si>
+    <t>This was surely one of the best restaurants on the west coast.</t>
+  </si>
+  <si>
+    <t>Senna gave his name to the host, who quickly located their reservation with a beaming smile and knowing look directed at Senna.</t>
   </si>
   <si>
     <r>
@@ -64,7 +83,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>He led them to a table right by the window.</t>
+      <t>The host led them to a table right by the window.</t>
     </r>
   </si>
   <si>
@@ -81,7 +100,7 @@
     </r>
   </si>
   <si>
-    <t>The ring contained a canary diamond that had been in his grandmother’s wedding ring, and it was a brilliant stone that was accentuated by the small white diamonds encircling it.</t>
+    <t xml:space="preserve">The ring contained three canary yellow diamond that had been in his grandmother’s wedding ring, and it was a beautiful symphony of a ring. </t>
   </si>
   <si>
     <t>He walked back to the table after handing the small, velvet box to a waiter at the front podium.</t>
@@ -181,7 +200,7 @@
     <t>The neighboring tables exploded in applause.</t>
   </si>
   <si>
-    <t xml:space="preserve">The waiter returned with a bottle of champagne and popped it. </t>
+    <t xml:space="preserve">They hugged and the waiter returned with a bottle of champagne and popped it. </t>
   </si>
   <si>
     <t xml:space="preserve">All of this went unnoticed by Senna and Alvira as they looked into each others’ eyes, and he slipped the ring onto her finger. </t>
@@ -205,6 +224,12 @@
 </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">“I need to text my dad and tell him!” she sang. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The whole restaurant proceeded in cheers with them to celebrate the joyous occasion.  </t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -236,7 +261,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -244,6 +269,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -391,7 +421,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -401,7 +431,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -413,6 +443,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -422,7 +455,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1511,19 +1550,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1558,553 +1591,598 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="6">
         <v>21</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="80.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="331.8" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="205.8" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="331.8" customHeight="1">
+      <c r="A5" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="169.8" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="205.8" customHeight="1">
+      <c r="A6" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="241.8" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="169.8" customHeight="1">
+      <c r="A7" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="241.8" customHeight="1">
+      <c r="A8" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
         <v>7</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="79.8" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="79.8" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="331.8" customHeight="1">
-      <c r="A9" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="331.8" customHeight="1">
+      <c r="A10" t="s" s="13">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D10" s="11"/>
+      <c r="E10" s="10">
         <v>9</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="151.8" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="331.8" customHeight="1">
-      <c r="A11" t="s" s="10">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="151.8" customHeight="1">
+      <c r="A11" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="169.8" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="331.8" customHeight="1">
+      <c r="A12" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="169.8" customHeight="1">
+      <c r="A13" t="s" s="13">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
         <v>6</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="151.8" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="151.8" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="241.8" customHeight="1">
+      <c r="A15" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="151.8" customHeight="1">
+      <c r="A16" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="79.8" customHeight="1">
+      <c r="A17" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="205.8" customHeight="1">
+      <c r="A18" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="169.8" customHeight="1">
+      <c r="A19" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="43.8" customHeight="1">
+      <c r="A20" t="s" s="13">
+        <v>24</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="241.8" customHeight="1">
+      <c r="A21" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>8</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="331.8" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B22" s="9">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="115.8" customHeight="1">
+      <c r="A23" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="97.8" customHeight="1">
+      <c r="A24" t="s" s="13">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="115.8" customHeight="1">
+      <c r="A25" t="s" s="13">
+        <v>29</v>
+      </c>
+      <c r="B25" s="9">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="151.8" customHeight="1">
+      <c r="A26" t="s" s="13">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="115.8" customHeight="1">
+      <c r="A27" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="313.8" customHeight="1">
+      <c r="A28" t="s" s="13">
+        <v>32</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="241.8" customHeight="1">
-      <c r="A14" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="133.8" customHeight="1">
+      <c r="A29" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
         <v>3</v>
       </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="151.8" customHeight="1">
-      <c r="A15" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="61.8" customHeight="1">
+      <c r="A30" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
         <v>3</v>
       </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="79.8" customHeight="1">
-      <c r="A16" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="79.8" customHeight="1">
+      <c r="A31" t="s" s="13">
+        <v>35</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="205.8" customHeight="1">
-      <c r="A17" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="61.8" customHeight="1">
+      <c r="A32" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
         <v>3</v>
       </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="169.8" customHeight="1">
-      <c r="A18" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="115.8" customHeight="1">
+      <c r="A33" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
         <v>3</v>
       </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="43.8" customHeight="1">
-      <c r="A19" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="241.8" customHeight="1">
-      <c r="A20" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9">
-        <v>8</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="331.8" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="B21" s="8">
-        <v>4</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="115.8" customHeight="1">
-      <c r="A22" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="B22" s="8">
-        <v>4</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="97.8" customHeight="1">
-      <c r="A23" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="B23" s="8">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" ht="115.8" customHeight="1">
-      <c r="A24" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="B24" s="8">
-        <v>4</v>
-      </c>
-      <c r="C24" s="9">
-        <v>2</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" ht="151.8" customHeight="1">
-      <c r="A25" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="B25" s="8">
-        <v>4</v>
-      </c>
-      <c r="C25" s="9">
-        <v>2</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" ht="115.8" customHeight="1">
-      <c r="A26" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="B26" s="8">
-        <v>4</v>
-      </c>
-      <c r="C26" s="9">
-        <v>2</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9">
+      <c r="D33" s="11"/>
+      <c r="E33" s="10">
+        <v>5</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="115.8" customHeight="1">
+      <c r="A34" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="97.8" customHeight="1">
+      <c r="A35" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="133.8" customHeight="1">
+      <c r="A36" t="s" s="13">
+        <v>40</v>
+      </c>
+      <c r="B36" s="9">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="223.8" customHeight="1">
+      <c r="A37" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="364.35" customHeight="1">
+      <c r="A38" t="s" s="13">
+        <v>42</v>
+      </c>
+      <c r="B38" s="9">
+        <v>4</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
+      <c r="D38" s="10">
         <v>17</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" ht="313.8" customHeight="1">
-      <c r="A27" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="B27" s="8">
-        <v>4</v>
-      </c>
-      <c r="C27" s="9">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" ht="133.8" customHeight="1">
-      <c r="A28" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="B28" s="8">
-        <v>4</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" ht="61.8" customHeight="1">
-      <c r="A29" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="B29" s="8">
-        <v>4</v>
-      </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" ht="79.8" customHeight="1">
-      <c r="A30" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="B30" s="8">
-        <v>4</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" ht="61.8" customHeight="1">
-      <c r="A31" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="B31" s="8">
-        <v>4</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" ht="115.8" customHeight="1">
-      <c r="A32" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="B32" s="8">
-        <v>4</v>
-      </c>
-      <c r="C32" s="9">
-        <v>3</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9">
+      <c r="E38" s="10">
         <v>5</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" ht="115.8" customHeight="1">
-      <c r="A33" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="B33" s="8">
-        <v>4</v>
-      </c>
-      <c r="C33" s="9">
-        <v>4</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" ht="97.8" customHeight="1">
-      <c r="A34" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="B34" s="8">
-        <v>4</v>
-      </c>
-      <c r="C34" s="9">
-        <v>4</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" ht="133.8" customHeight="1">
-      <c r="A35" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="B35" s="8">
-        <v>4</v>
-      </c>
-      <c r="C35" s="9">
-        <v>4</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" ht="223.8" customHeight="1">
-      <c r="A36" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="B36" s="8">
-        <v>4</v>
-      </c>
-      <c r="C36" s="9">
-        <v>4</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" ht="364.35" customHeight="1">
-      <c r="A37" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="B37" s="8">
-        <v>4</v>
-      </c>
-      <c r="C37" s="9">
-        <v>4</v>
-      </c>
-      <c r="D37" s="9">
-        <v>17</v>
-      </c>
-      <c r="E37" s="9">
-        <v>5</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="364.35" customHeight="1">
+      <c r="A39" t="s" s="13">
+        <v>43</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10">
+        <v>4</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="364.35" customHeight="1">
+      <c r="A40" t="s" s="13">
+        <v>44</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/21.xlsx
+++ b/story_xlsx_files/21.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>storyText</t>
   </si>
@@ -74,20 +74,34 @@
     <t>This was surely one of the best restaurants on the west coast.</t>
   </si>
   <si>
-    <t>Senna gave his name to the host, who quickly located their reservation with a beaming smile and knowing look directed at Senna.</t>
-  </si>
-  <si>
+    <t xml:space="preserve">After Senna gave his name to the host, who discretely winked at Senna, they were seated at a table right by the window. </t>
+  </si>
+  <si>
+    <t>The waiter brought out some very small menus, with a short list of the head chef's carefully selected daily dishes written in a loopy, cursive font unadorned by any mention of prices.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>Senna got nervous about the ring, and he</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The host led them to a table right by the window.</t>
+      <t xml:space="preserve"> slipped off to the bathroom to check to make sure it looked alright.</t>
     </r>
   </si>
   <si>
-    <t>He brought out some very small menus, with a short list of the celebrity chef's carefully selected daily dishes written in a loopy, cursive font unadorned by any mention of prices.</t>
+    <t xml:space="preserve">The ring contained three canary yellow diamond that had been in his grandmother’s wedding ring. </t>
+  </si>
+  <si>
+    <t>As he walked back to the table, he gave the host the ring.</t>
   </si>
   <si>
     <r>
@@ -96,14 +110,29 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Senna slipped off to the bathroom to check to make sure the ring was in order.</t>
+      <t>The waiter came to their table to take their order.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The ring contained three canary yellow diamond that had been in his grandmother’s wedding ring, and it was a beautiful symphony of a ring. </t>
-  </si>
-  <si>
-    <t>He walked back to the table after handing the small, velvet box to a waiter at the front podium.</t>
+    <t xml:space="preserve">Senna ordered the oysters with garlic-parmesan sauce, and Alvira ordered the sauteed sea scallops with caramelized apples. </t>
+  </si>
+  <si>
+    <t>“Excellent choices,” the waiter said with a subsequent brisk spin away from the table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“What a beautiful place, Senna. </t>
+  </si>
+  <si>
+    <t>Really this is too much just to celebrate the first tomatoes I grew in the garden- like, this is absurd,” Alvira said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senna laughed and said, “No, those were really the best tomatoes I’ve ever had. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had to celebrate.” </t>
+  </si>
+  <si>
+    <t>They talked and laughed as the sun sank below the horizon, and the glow from the windows was replaced by the chandeliers.</t>
   </si>
   <si>
     <r>
@@ -112,29 +141,8 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>He came back just as their waiter was approaching the table to get their order.</t>
+      <t>The waiter eventually returned with their meals.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Senna ordered the oysters with garlic-parmesan sauce, and Alvira ordered the sauteed sea scallops with caramelized apples. </t>
-  </si>
-  <si>
-    <t>“Excellent choices,” the waiter said with a subsequent brisk spin away from the table.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“What a beautiful place, Senna. </t>
-  </si>
-  <si>
-    <t>Really this is too much just to celebrate the first tomatoes I grew in the garden, like, this is absurd,” Alvira said.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senna laughed and said, “No, those were really the best tomatoes I’ve ever had. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We had to celebrate.” </t>
-  </si>
-  <si>
-    <t>They talked and laughed as the sun sank below the horizon, and the glow from the ocean was replaced by the glow from the chandeliers.</t>
   </si>
   <si>
     <r>
@@ -143,7 +151,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">The waiter eventually returned with their meals, and everything was even more delicious than they had expected, especially the oysters, which Senna said tasted like the ocean. </t>
+      <t xml:space="preserve">Everything was even more delicious than they had expected, especially the oysters, which Senna said tasted like the ocean. </t>
     </r>
   </si>
   <si>
@@ -184,45 +192,31 @@
     <t>Alvira started to cry.</t>
   </si>
   <si>
-    <t xml:space="preserve">The room became silent, and everyone turned to their table. </t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t xml:space="preserve">After a few moments with everyone turned and looking at Elvira in expectation, she exclaimed, </t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>“Yes, of course, yes!” she shouted as she wiped away tears.</t>
+      <t>“Yes, of course, yes!”</t>
     </r>
   </si>
   <si>
-    <t>The neighboring tables exploded in applause.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They hugged and the waiter returned with a bottle of champagne and popped it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All of this went unnoticed by Senna and Alvira as they looked into each others’ eyes, and he slipped the ring onto her finger. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>She held up her hand to admire it, and her glittering tears of joy matched the shine from her ring.   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>The other guests exploded in applause.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elvira and Senna hugged and the waiter returned with a bottle of champagne and popped it. </t>
+  </si>
+  <si>
+    <t>Senna slipped the ring onto her finger and she held up her hand to admire it.</t>
   </si>
   <si>
     <t xml:space="preserve">“I need to text my dad and tell him!” she sang. </t>
@@ -1550,7 +1544,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1678,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1690,8 +1684,8 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="79.8" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="9" ht="331.8" customHeight="1">
+      <c r="A9" t="s" s="13">
         <v>13</v>
       </c>
       <c r="B9" s="9">
@@ -1701,29 +1695,29 @@
         <v>1</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="10">
+        <v>9</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="331.8" customHeight="1">
-      <c r="A10" t="s" s="13">
+    <row r="10" ht="151.8" customHeight="1">
+      <c r="A10" t="s" s="8">
         <v>14</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
       </c>
       <c r="C10" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="10">
-        <v>9</v>
-      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="151.8" customHeight="1">
-      <c r="A11" t="s" s="8">
+    <row r="11" ht="331.8" customHeight="1">
+      <c r="A11" t="s" s="13">
         <v>15</v>
       </c>
       <c r="B11" s="9">
@@ -1737,7 +1731,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="331.8" customHeight="1">
+    <row r="12" ht="169.8" customHeight="1">
       <c r="A12" t="s" s="13">
         <v>16</v>
       </c>
@@ -1747,30 +1741,30 @@
       <c r="C12" s="10">
         <v>2</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10">
+        <v>6</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="169.8" customHeight="1">
-      <c r="A13" t="s" s="13">
+    <row r="13" ht="151.8" customHeight="1">
+      <c r="A13" t="s" s="8">
         <v>17</v>
       </c>
       <c r="B13" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="10">
-        <v>6</v>
-      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="151.8" customHeight="1">
-      <c r="A14" t="s" s="8">
+    <row r="14" ht="241.8" customHeight="1">
+      <c r="A14" t="s" s="13">
         <v>18</v>
       </c>
       <c r="B14" s="9">
@@ -1784,7 +1778,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="241.8" customHeight="1">
+    <row r="15" ht="151.8" customHeight="1">
       <c r="A15" t="s" s="13">
         <v>19</v>
       </c>
@@ -1799,7 +1793,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="151.8" customHeight="1">
+    <row r="16" ht="79.8" customHeight="1">
       <c r="A16" t="s" s="13">
         <v>20</v>
       </c>
@@ -1814,7 +1808,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="79.8" customHeight="1">
+    <row r="17" ht="205.8" customHeight="1">
       <c r="A17" t="s" s="13">
         <v>21</v>
       </c>
@@ -1829,7 +1823,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="205.8" customHeight="1">
+    <row r="18" ht="169.8" customHeight="1">
       <c r="A18" t="s" s="13">
         <v>22</v>
       </c>
@@ -1844,7 +1838,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="169.8" customHeight="1">
+    <row r="19" ht="43.8" customHeight="1">
       <c r="A19" t="s" s="13">
         <v>23</v>
       </c>
@@ -1859,7 +1853,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="43.8" customHeight="1">
+    <row r="20" ht="241.8" customHeight="1">
       <c r="A20" t="s" s="13">
         <v>24</v>
       </c>
@@ -1869,24 +1863,24 @@
       <c r="C20" s="10">
         <v>2</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="10">
+        <v>8</v>
+      </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="241.8" customHeight="1">
-      <c r="A21" t="s" s="13">
+    <row r="21" ht="331.8" customHeight="1">
+      <c r="A21" t="s" s="8">
         <v>25</v>
       </c>
       <c r="B21" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="D21" s="10">
-        <v>8</v>
-      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2066,16 +2060,14 @@
         <v>4</v>
       </c>
       <c r="C33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="10">
-        <v>5</v>
-      </c>
+      <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="115.8" customHeight="1">
+    <row r="34" ht="97.8" customHeight="1">
       <c r="A34" t="s" s="13">
         <v>38</v>
       </c>
@@ -2090,7 +2082,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="97.8" customHeight="1">
+    <row r="35" ht="133.8" customHeight="1">
       <c r="A35" t="s" s="13">
         <v>39</v>
       </c>
@@ -2105,7 +2097,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="133.8" customHeight="1">
+    <row r="36" ht="223.8" customHeight="1">
       <c r="A36" t="s" s="13">
         <v>40</v>
       </c>
@@ -2120,7 +2112,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="223.8" customHeight="1">
+    <row r="37" ht="364.35" customHeight="1">
       <c r="A37" t="s" s="13">
         <v>41</v>
       </c>
@@ -2145,44 +2137,10 @@
       <c r="C38" s="10">
         <v>4</v>
       </c>
-      <c r="D38" s="10">
-        <v>17</v>
-      </c>
-      <c r="E38" s="10">
-        <v>5</v>
-      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-    </row>
-    <row r="39" ht="364.35" customHeight="1">
-      <c r="A39" t="s" s="13">
-        <v>43</v>
-      </c>
-      <c r="B39" s="9">
-        <v>4</v>
-      </c>
-      <c r="C39" s="10">
-        <v>4</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="364.35" customHeight="1">
-      <c r="A40" t="s" s="13">
-        <v>44</v>
-      </c>
-      <c r="B40" s="9">
-        <v>4</v>
-      </c>
-      <c r="C40" s="10">
-        <v>4</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/21.xlsx
+++ b/story_xlsx_files/21.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>storyText</t>
   </si>
@@ -39,14 +39,14 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Alvira and Senna walked into the restaurant hand in sweaty hand with quite different expectations: Senna, after 5 years of dating,  was going to propose tonight, and Alvira had no idea.</t>
+      <t>Alvira and Senna walked into the restaurant hand in sweaty hand with quite different expectations for the night: Senna, after 5 years of dating, was going to propose, and Alvira had no idea.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">He took a deep breath, trying to calm his nerves as worst case scenarios ran through his mind. </t>
   </si>
   <si>
-    <t>The restaurant was on the beach and had floor-to-ceiling arched windows through which you could steal glances at the ocean.</t>
+    <t>The restaurant was on the beach and had floor-to-ceiling arched windows that framed an incredible view of the Pacific Ocean.</t>
   </si>
   <si>
     <r>
@@ -55,7 +55,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The restaurant itself was beautiful- crystal chandeliers hung from the high ceiling above small tables covered with white table clothes.</t>
+      <t>Besides the view, the restaurant itself was beautiful- crystal chandeliers hung from the high ceiling above small tables covered with white table clothes.</t>
     </r>
     <r>
       <rPr>
@@ -68,10 +68,7 @@
     </r>
   </si>
   <si>
-    <t>They saw the sun setting onto the Pacific ocean.</t>
-  </si>
-  <si>
-    <t>This was surely one of the best restaurants on the west coast.</t>
+    <t>This was surely one of the best restaurants on the West Coast.</t>
   </si>
   <si>
     <t xml:space="preserve">After Senna gave his name to the host, who discretely winked at Senna, they were seated at a table right by the window. </t>
@@ -98,7 +95,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The ring contained three canary yellow diamond that had been in his grandmother’s wedding ring. </t>
+    <t xml:space="preserve">The ring contained three canary yellow diamonds that had been in his grandmother’s wedding ring. </t>
   </si>
   <si>
     <t>As he walked back to the table, he gave the host the ring.</t>
@@ -110,20 +107,20 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The waiter came to their table to take their order.</t>
+      <t>The waiter appeared at their table to take their order.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Senna ordered the oysters with garlic-parmesan sauce, and Alvira ordered the sauteed sea scallops with caramelized apples. </t>
   </si>
   <si>
-    <t>“Excellent choices,” the waiter said with a subsequent brisk spin away from the table.</t>
+    <t>“Excellent choices,” the waiter said.</t>
   </si>
   <si>
     <t xml:space="preserve">“What a beautiful place, Senna. </t>
   </si>
   <si>
-    <t>Really this is too much just to celebrate the first tomatoes I grew in the garden- like, this is absurd,” Alvira said.</t>
+    <t>This is too much just to celebrate the first tomatoes I grew in the garden- really, this is absurd,” Alvira said.</t>
   </si>
   <si>
     <t xml:space="preserve">Senna laughed and said, “No, those were really the best tomatoes I’ve ever had. </t>
@@ -132,7 +129,7 @@
     <t xml:space="preserve">We had to celebrate.” </t>
   </si>
   <si>
-    <t>They talked and laughed as the sun sank below the horizon, and the glow from the windows was replaced by the chandeliers.</t>
+    <t>They talked and laughed as the sun sank below the horizon, lighting up the sky and water, and slowly the glow from the windows was replaced by the chandeliers.</t>
   </si>
   <si>
     <r>
@@ -141,7 +138,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The waiter eventually returned with their meals.</t>
+      <t>The waiter returned with their dishes.</t>
     </r>
   </si>
   <si>
@@ -155,28 +152,24 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Then he paused and looked at Alvira meaningfully. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> “It’s really been the best three years of my life with you.</t>
-  </si>
-  <si>
-    <t>I couldn’t imagine it any other way, and I don’t want to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I really want to spend the rest of my years eating garden tomatoes, whatever it is, with you.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvira smiled, “I want the same with you too, Senna.” </t>
-  </si>
-  <si>
+    <t xml:space="preserve"> As they were eating, Senna recounted to Alvira how they had met, and he told her in many words how much he loved her and what he loved about her, almost tearing up at moments. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>When they had finished eating, S</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Senna nodded at the waiter who had been watching attentively, and he quickly strode over to place a small, elegant cake topped with the ring in front of Alvira. </t>
+      <t xml:space="preserve">enna nodded at the waiter who had been watching attentively, and he quickly strode over to place a small, elegant cake topped with the ring in front of Alvira. </t>
     </r>
   </si>
   <si>
@@ -1544,7 +1537,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1637,7 +1630,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="205.8" customHeight="1">
+    <row r="6" ht="169.8" customHeight="1">
       <c r="A6" t="s" s="13">
         <v>10</v>
       </c>
@@ -1652,22 +1645,24 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="169.8" customHeight="1">
+    <row r="7" ht="241.8" customHeight="1">
       <c r="A7" t="s" s="13">
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10">
+        <v>7</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="241.8" customHeight="1">
+    <row r="8" ht="331.8" customHeight="1">
       <c r="A8" t="s" s="13">
         <v>12</v>
       </c>
@@ -1677,32 +1672,30 @@
       <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
-        <v>7</v>
-      </c>
-      <c r="E8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10">
+        <v>9</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="331.8" customHeight="1">
-      <c r="A9" t="s" s="13">
+    <row r="9" ht="151.8" customHeight="1">
+      <c r="A9" t="s" s="8">
         <v>13</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
       </c>
       <c r="C9" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="10">
-        <v>9</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="151.8" customHeight="1">
-      <c r="A10" t="s" s="8">
+    <row r="10" ht="331.8" customHeight="1">
+      <c r="A10" t="s" s="13">
         <v>14</v>
       </c>
       <c r="B10" s="9">
@@ -1716,7 +1709,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="331.8" customHeight="1">
+    <row r="11" ht="169.8" customHeight="1">
       <c r="A11" t="s" s="13">
         <v>15</v>
       </c>
@@ -1726,30 +1719,30 @@
       <c r="C11" s="10">
         <v>2</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10">
+        <v>6</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="169.8" customHeight="1">
-      <c r="A12" t="s" s="13">
+    <row r="12" ht="151.8" customHeight="1">
+      <c r="A12" t="s" s="8">
         <v>16</v>
       </c>
       <c r="B12" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
       </c>
-      <c r="D12" s="10">
-        <v>6</v>
-      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="151.8" customHeight="1">
-      <c r="A13" t="s" s="8">
+    <row r="13" ht="241.8" customHeight="1">
+      <c r="A13" t="s" s="13">
         <v>17</v>
       </c>
       <c r="B13" s="9">
@@ -1763,7 +1756,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="241.8" customHeight="1">
+    <row r="14" ht="151.8" customHeight="1">
       <c r="A14" t="s" s="13">
         <v>18</v>
       </c>
@@ -1778,7 +1771,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="151.8" customHeight="1">
+    <row r="15" ht="79.8" customHeight="1">
       <c r="A15" t="s" s="13">
         <v>19</v>
       </c>
@@ -1793,7 +1786,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="79.8" customHeight="1">
+    <row r="16" ht="205.8" customHeight="1">
       <c r="A16" t="s" s="13">
         <v>20</v>
       </c>
@@ -1808,7 +1801,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="205.8" customHeight="1">
+    <row r="17" ht="169.8" customHeight="1">
       <c r="A17" t="s" s="13">
         <v>21</v>
       </c>
@@ -1823,7 +1816,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="169.8" customHeight="1">
+    <row r="18" ht="43.8" customHeight="1">
       <c r="A18" t="s" s="13">
         <v>22</v>
       </c>
@@ -1838,7 +1831,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="43.8" customHeight="1">
+    <row r="19" ht="241.8" customHeight="1">
       <c r="A19" t="s" s="13">
         <v>23</v>
       </c>
@@ -1848,24 +1841,24 @@
       <c r="C19" s="10">
         <v>2</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="10">
+        <v>8</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="241.8" customHeight="1">
-      <c r="A20" t="s" s="13">
+    <row r="20" ht="331.8" customHeight="1">
+      <c r="A20" t="s" s="8">
         <v>24</v>
       </c>
       <c r="B20" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
       </c>
-      <c r="D20" s="10">
-        <v>8</v>
-      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1885,8 +1878,8 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="331.8" customHeight="1">
-      <c r="A22" t="s" s="8">
+    <row r="22" ht="97.8" customHeight="1">
+      <c r="A22" t="s" s="13">
         <v>26</v>
       </c>
       <c r="B22" s="9">
@@ -1900,7 +1893,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="115.8" customHeight="1">
+    <row r="23" ht="313.8" customHeight="1">
       <c r="A23" t="s" s="13">
         <v>27</v>
       </c>
@@ -1908,14 +1901,14 @@
         <v>4</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="97.8" customHeight="1">
+    <row r="24" ht="133.8" customHeight="1">
       <c r="A24" t="s" s="13">
         <v>28</v>
       </c>
@@ -1923,14 +1916,14 @@
         <v>4</v>
       </c>
       <c r="C24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="115.8" customHeight="1">
+    <row r="25" ht="61.8" customHeight="1">
       <c r="A25" t="s" s="13">
         <v>29</v>
       </c>
@@ -1938,14 +1931,14 @@
         <v>4</v>
       </c>
       <c r="C25" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="151.8" customHeight="1">
+    <row r="26" ht="79.8" customHeight="1">
       <c r="A26" t="s" s="13">
         <v>30</v>
       </c>
@@ -1953,14 +1946,14 @@
         <v>4</v>
       </c>
       <c r="C26" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="115.8" customHeight="1">
+    <row r="27" ht="61.8" customHeight="1">
       <c r="A27" t="s" s="13">
         <v>31</v>
       </c>
@@ -1968,16 +1961,14 @@
         <v>4</v>
       </c>
       <c r="C27" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="10">
-        <v>17</v>
-      </c>
+      <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="313.8" customHeight="1">
+    <row r="28" ht="115.8" customHeight="1">
       <c r="A28" t="s" s="13">
         <v>32</v>
       </c>
@@ -1985,14 +1976,14 @@
         <v>4</v>
       </c>
       <c r="C28" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="133.8" customHeight="1">
+    <row r="29" ht="97.8" customHeight="1">
       <c r="A29" t="s" s="13">
         <v>33</v>
       </c>
@@ -2000,14 +1991,14 @@
         <v>4</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="61.8" customHeight="1">
+    <row r="30" ht="133.8" customHeight="1">
       <c r="A30" t="s" s="13">
         <v>34</v>
       </c>
@@ -2015,14 +2006,14 @@
         <v>4</v>
       </c>
       <c r="C30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="79.8" customHeight="1">
+    <row r="31" ht="223.8" customHeight="1">
       <c r="A31" t="s" s="13">
         <v>35</v>
       </c>
@@ -2030,14 +2021,14 @@
         <v>4</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="61.8" customHeight="1">
+    <row r="32" ht="364.35" customHeight="1">
       <c r="A32" t="s" s="13">
         <v>36</v>
       </c>
@@ -2045,14 +2036,14 @@
         <v>4</v>
       </c>
       <c r="C32" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="115.8" customHeight="1">
+    <row r="33" ht="364.35" customHeight="1">
       <c r="A33" t="s" s="13">
         <v>37</v>
       </c>
@@ -2066,81 +2057,6 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="97.8" customHeight="1">
-      <c r="A34" t="s" s="13">
-        <v>38</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" ht="133.8" customHeight="1">
-      <c r="A35" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="B35" s="9">
-        <v>4</v>
-      </c>
-      <c r="C35" s="10">
-        <v>4</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="223.8" customHeight="1">
-      <c r="A36" t="s" s="13">
-        <v>40</v>
-      </c>
-      <c r="B36" s="9">
-        <v>4</v>
-      </c>
-      <c r="C36" s="10">
-        <v>4</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" ht="364.35" customHeight="1">
-      <c r="A37" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B37" s="9">
-        <v>4</v>
-      </c>
-      <c r="C37" s="10">
-        <v>4</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="364.35" customHeight="1">
-      <c r="A38" t="s" s="13">
-        <v>42</v>
-      </c>
-      <c r="B38" s="9">
-        <v>4</v>
-      </c>
-      <c r="C38" s="10">
-        <v>4</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/21.xlsx
+++ b/story_xlsx_files/21.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -39,7 +39,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>Alvira and Senna walked into the restaurant hand in sweaty hand with quite different expectations for the night: Senna, after 5 years of dating, was going to propose, and Alvira had no idea.</t>
+      <t>Alvira and Senna walked into the restaurant hand in sweaty hand with quite different expectations for the night because Senna, after 5 years of dating, was going to propose, and Alvira had no idea.</t>
     </r>
   </si>
   <si>
@@ -74,7 +74,10 @@
     <t xml:space="preserve">After Senna gave his name to the host, who discretely winked at Senna, they were seated at a table right by the window. </t>
   </si>
   <si>
-    <t>The waiter brought out some very small menus, with a short list of the head chef's carefully selected daily dishes written in a loopy, cursive font unadorned by any mention of prices.</t>
+    <t>The waiter brought out some very small menus.</t>
+  </si>
+  <si>
+    <t>They consisted of a short list of the head chef's carefully selected daily dishes written in a loopy, cursive font unadorned by any mention of prices.</t>
   </si>
   <si>
     <r>
@@ -98,23 +101,20 @@
     <t xml:space="preserve">The ring contained three canary yellow diamonds that had been in his grandmother’s wedding ring. </t>
   </si>
   <si>
-    <t>As he walked back to the table, he gave the host the ring.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The waiter appeared at their table to take their order.</t>
+      <t>After Senna had gotten back to the table, the waiter appeared at their table to take their order.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Senna ordered the oysters with garlic-parmesan sauce, and Alvira ordered the sauteed sea scallops with caramelized apples. </t>
   </si>
   <si>
-    <t>“Excellent choices,” the waiter said.</t>
+    <t>“Excellent choices,” the waiter said, and he left.</t>
   </si>
   <si>
     <t xml:space="preserve">“What a beautiful place, Senna. </t>
@@ -176,13 +176,10 @@
     <t>Her eyes widened in shock when she realized what she was looking at.</t>
   </si>
   <si>
-    <t xml:space="preserve">“Alvira, will you marry me? </t>
+    <t xml:space="preserve">Senna got down on one knee and said,“Alvira, will you marry me? </t>
   </si>
   <si>
     <t xml:space="preserve">I love you, and I will never stop loving you.” </t>
-  </si>
-  <si>
-    <t>Alvira started to cry.</t>
   </si>
   <si>
     <r>
@@ -203,13 +200,13 @@
     </r>
   </si>
   <si>
-    <t>The other guests exploded in applause.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elvira and Senna hugged and the waiter returned with a bottle of champagne and popped it. </t>
-  </si>
-  <si>
-    <t>Senna slipped the ring onto her finger and she held up her hand to admire it.</t>
+    <t xml:space="preserve">She hugged Senna with tears flowing down her cheeks. </t>
+  </si>
+  <si>
+    <t>The other guests exploded in applause, and the waiter returned with a bottle of champagne and popped it.</t>
+  </si>
+  <si>
+    <t>Senna slipped the ring onto Alvira’s finger and she held up her hand to admire it.</t>
   </si>
   <si>
     <t xml:space="preserve">“I need to text my dad and tell him!” she sang. </t>
@@ -408,7 +405,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -449,6 +446,9 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1537,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1679,23 +1679,19 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="151.8" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="9" ht="331.8" customHeight="1">
+      <c r="A9" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="331.8" customHeight="1">
-      <c r="A10" t="s" s="13">
+    <row r="10" ht="151.8" customHeight="1">
+      <c r="A10" t="s" s="8">
         <v>14</v>
       </c>
       <c r="B10" s="9">
@@ -1709,7 +1705,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="169.8" customHeight="1">
+    <row r="11" ht="331.8" customHeight="1">
       <c r="A11" t="s" s="13">
         <v>15</v>
       </c>
@@ -1719,9 +1715,7 @@
       <c r="C11" s="10">
         <v>2</v>
       </c>
-      <c r="D11" s="10">
-        <v>6</v>
-      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1953,7 +1947,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="61.8" customHeight="1">
+    <row r="27" ht="115.8" customHeight="1">
       <c r="A27" t="s" s="13">
         <v>31</v>
       </c>
@@ -1961,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -1998,7 +1992,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="133.8" customHeight="1">
+    <row r="30" ht="223.8" customHeight="1">
       <c r="A30" t="s" s="13">
         <v>34</v>
       </c>
@@ -2013,7 +2007,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="223.8" customHeight="1">
+    <row r="31" ht="364.35" customHeight="1">
       <c r="A31" t="s" s="13">
         <v>35</v>
       </c>
@@ -2042,21 +2036,6 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="364.35" customHeight="1">
-      <c r="A33" t="s" s="13">
-        <v>37</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4</v>
-      </c>
-      <c r="C33" s="10">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/21.xlsx
+++ b/story_xlsx_files/21.xlsx
@@ -231,7 +231,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -405,7 +405,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -446,9 +446,6 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,14 +518,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -709,10 +706,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1280,10 +1277,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1683,8 +1680,12 @@
       <c r="A9" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -2041,7 +2042,7 @@
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/21.xlsx
+++ b/story_xlsx_files/21.xlsx
@@ -55,7 +55,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Besides the view, the restaurant itself was beautiful- crystal chandeliers hung from the high ceiling above small tables covered with white table clothes.</t>
+      <t>Besides the view, the restaurant itself was beautiful- crystal chandeliers hung from the high ceiling above small tables covered with white table cloths.</t>
     </r>
     <r>
       <rPr>
@@ -152,7 +152,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> As they were eating, Senna recounted to Alvira how they had met, and he told her in many words how much he loved her and what he loved about her, almost tearing up at moments. </t>
+    <t xml:space="preserve">As they were eating, Senna recounted to Alvira how they had met, and he told her in many words how much he loved her and what he loved about her, almost tearing up at moments. </t>
   </si>
   <si>
     <r>
@@ -206,7 +206,7 @@
     <t>The other guests exploded in applause, and the waiter returned with a bottle of champagne and popped it.</t>
   </si>
   <si>
-    <t>Senna slipped the ring onto Alvira’s finger and she held up her hand to admire it.</t>
+    <t>Senna slipped the ring onto Alvira’s finger, and she held up her hand to admire it.</t>
   </si>
   <si>
     <t xml:space="preserve">“I need to text my dad and tell him!” she sang. </t>
